--- a/docs/VF-VitalsDevice.xlsx
+++ b/docs/VF-VitalsDevice.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Map between VitalSignTO.qualifier VUID/string and SNOMED code for Observation[observation-deviceCode].valueCodeableConcept</t>
+    <t>Map between VitalSignTO.qualifier VUID/string and SNOMED code for Observation.extension[observation-deviceCode].valueCodeableConcept</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/VF-VitalsDevice.xlsx
+++ b/docs/VF-VitalsDevice.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -114,7 +114,7 @@
     <t>http://snomed.info/sct</t>
   </si>
   <si>
-    <t>4711289</t>
+    <t>4500641</t>
   </si>
   <si>
     <t>ADULT CUFF</t>
@@ -129,7 +129,7 @@
     <t>Adult</t>
   </si>
   <si>
-    <t>4711308</t>
+    <t>4688635</t>
   </si>
   <si>
     <t>AEROSOL/HUMIDIFIED MASK</t>
@@ -141,7 +141,7 @@
     <t>Aerosol oxygen mask</t>
   </si>
   <si>
-    <t>4711310</t>
+    <t>4688698</t>
   </si>
   <si>
     <t>AMBU BAG (BAG VALVE MASK)</t>
@@ -153,7 +153,7 @@
     <t>Ambu bag</t>
   </si>
   <si>
-    <t>4711311</t>
+    <t>4688701</t>
   </si>
   <si>
     <t>ARTERIAL LINE</t>
@@ -177,7 +177,7 @@
     <t>Mechanically assisted spontaneous ventilation</t>
   </si>
   <si>
-    <t>4711315</t>
+    <t>4688641</t>
   </si>
   <si>
     <t>BED</t>
@@ -189,7 +189,7 @@
     <t>Bed scale</t>
   </si>
   <si>
-    <t>4711316</t>
+    <t>4688695</t>
   </si>
   <si>
     <t>BIPAP (BI-LEVEL POSITIVE AIRWAY PRESSURE)</t>
@@ -201,7 +201,7 @@
     <t>Dual pressure spontaneous ventilation support</t>
   </si>
   <si>
-    <t>4711317</t>
+    <t>4688691</t>
   </si>
   <si>
     <t>BIPAP-CPAP (BI-LEVEL POSITIVE AIRWAY PRESSURE-CONTINUOUS POSITIVE AIRWAY PRESSURE)</t>
@@ -213,7 +213,7 @@
     <t>Positive pressure therapy</t>
   </si>
   <si>
-    <t>4711318</t>
+    <t>4688646</t>
   </si>
   <si>
     <t>CHAIR</t>
@@ -225,7 +225,7 @@
     <t>Chair scale, mechanical</t>
   </si>
   <si>
-    <t>4711319</t>
+    <t>4688647</t>
   </si>
   <si>
     <t>CONTROLLED VENTILATOR</t>
@@ -237,7 +237,7 @@
     <t>Controlled ventilation</t>
   </si>
   <si>
-    <t>4711320</t>
+    <t>4688690</t>
   </si>
   <si>
     <t>CPAP (CONTINUOUS POSITIVE AIRWAY PRESSURE)</t>
@@ -249,7 +249,7 @@
     <t>Continuous positive airway pressure ventilation treatment</t>
   </si>
   <si>
-    <t>4711321</t>
+    <t>4688649</t>
   </si>
   <si>
     <t>CUFF-AUTOMATED (AUTOMATED CUFF)</t>
@@ -261,7 +261,7 @@
     <t>Electronic sphygmomanometer</t>
   </si>
   <si>
-    <t>4711322</t>
+    <t>4688688</t>
   </si>
   <si>
     <t>CUFF-MANUAL (MANUAL CUFF)</t>
@@ -273,7 +273,7 @@
     <t>Mercury manual sphygmomanometer</t>
   </si>
   <si>
-    <t>4711323</t>
+    <t>4688650</t>
   </si>
   <si>
     <t>DOPPLER</t>
@@ -285,7 +285,7 @@
     <t>Doppler studies</t>
   </si>
   <si>
-    <t>4711324</t>
+    <t>4688654</t>
   </si>
   <si>
     <t>FACE TENT</t>
@@ -297,7 +297,7 @@
     <t>Face tent oxygen delivery device</t>
   </si>
   <si>
-    <t>4711326</t>
+    <t>4536584</t>
   </si>
   <si>
     <t>LARYNGEAL MASK AIRWAY</t>
@@ -309,7 +309,7 @@
     <t>Laryngeal mask</t>
   </si>
   <si>
-    <t>4711327</t>
+    <t>4688659</t>
   </si>
   <si>
     <t>LEAD</t>
@@ -321,7 +321,7 @@
     <t>Electrocardiogram lead</t>
   </si>
   <si>
-    <t>4711290</t>
+    <t>4688661</t>
   </si>
   <si>
     <t>LG ADULT CUFF</t>
@@ -333,7 +333,7 @@
     <t>Large</t>
   </si>
   <si>
-    <t>4711328</t>
+    <t>4688684</t>
   </si>
   <si>
     <t>LIFT SCALE</t>
@@ -345,7 +345,7 @@
     <t>Patient sling scale</t>
   </si>
   <si>
-    <t>4711329</t>
+    <t>4688664</t>
   </si>
   <si>
     <t>MASK</t>
@@ -357,7 +357,7 @@
     <t>Oxygen mask</t>
   </si>
   <si>
-    <t>4711330</t>
+    <t>4688665</t>
   </si>
   <si>
     <t>MONITOR</t>
@@ -369,7 +369,7 @@
     <t>Patient data recorder</t>
   </si>
   <si>
-    <t>4711331</t>
+    <t>4688687</t>
   </si>
   <si>
     <t>MUSTACHE CANNULA</t>
@@ -381,13 +381,13 @@
     <t>Oxygen nasal cannula</t>
   </si>
   <si>
-    <t>4711332</t>
+    <t>4688666</t>
   </si>
   <si>
     <t>NASAL CANNULA</t>
   </si>
   <si>
-    <t>4711334</t>
+    <t>4688667</t>
   </si>
   <si>
     <t>NON RE-BREATHER</t>
@@ -429,13 +429,13 @@
     <t>PENDANT CANNULA</t>
   </si>
   <si>
-    <t>4710823</t>
+    <t>4693051</t>
   </si>
   <si>
     <t>RESERVOIR CANNULA</t>
   </si>
   <si>
-    <t>4711359</t>
+    <t>4688705</t>
   </si>
   <si>
     <t>SM ADULT CUFF</t>
@@ -447,7 +447,7 @@
     <t>Small</t>
   </si>
   <si>
-    <t>4711366</t>
+    <t>4688709</t>
   </si>
   <si>
     <t>THIGH CUFF</t>
@@ -459,7 +459,7 @@
     <t>Procedure on thigh</t>
   </si>
   <si>
-    <t>4711364</t>
+    <t>4688710</t>
   </si>
   <si>
     <t>T-PIECE</t>
@@ -471,7 +471,7 @@
     <t>T-tube, device</t>
   </si>
   <si>
-    <t>4711367</t>
+    <t>4688711</t>
   </si>
   <si>
     <t>TRACHEOSTOMY COLLAR</t>
@@ -483,7 +483,7 @@
     <t>Tracheostomy mask, oxygen</t>
   </si>
   <si>
-    <t>4710797</t>
+    <t>4688715</t>
   </si>
   <si>
     <t>VENTILATOR</t>
@@ -495,7 +495,7 @@
     <t>Artificial respiration</t>
   </si>
   <si>
-    <t>4710798</t>
+    <t>4688716</t>
   </si>
   <si>
     <t>VENTURI MASK</t>
@@ -507,7 +507,7 @@
     <t>Venturi oxygen face mask</t>
   </si>
   <si>
-    <t>4710816</t>
+    <t>4688693</t>
   </si>
   <si>
     <t>WHEELCHAIR SCALE</t>

--- a/docs/VF-VitalsDevice.xlsx
+++ b/docs/VF-VitalsDevice.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsDevice.xlsx
+++ b/docs/VF-VitalsDevice.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsDevice.xlsx
+++ b/docs/VF-VitalsDevice.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsDevice.xlsx
+++ b/docs/VF-VitalsDevice.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsDevice.xlsx
+++ b/docs/VF-VitalsDevice.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsDevice.xlsx
+++ b/docs/VF-VitalsDevice.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="169">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.5</t>
+    <t>0.3.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,7 +72,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>VA Digital Services (http://va.gov)</t>
+  </si>
+  <si>
+    <t>John Moehrke (himself) (John.Moehrke@va.gov)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -745,28 +748,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>7</v>
@@ -774,7 +777,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2"/>
     </row>
@@ -793,631 +796,631 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s" s="1">
         <v>28</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="E25" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="E25" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/docs/VF-VitalsDevice.xlsx
+++ b/docs/VF-VitalsDevice.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsDevice.xlsx
+++ b/docs/VF-VitalsDevice.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
